--- a/data/case1/15/P1_3.xlsx
+++ b/data/case1/15/P1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.40583309251279331</v>
+        <v>0.34837547187382256</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.038123851585325497</v>
+        <v>-0.038899119782232816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999990893137038</v>
+        <v>-0.0089999990383127226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999777614789</v>
+        <v>-0.011999999757893676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999991006032261</v>
+        <v>-0.0059999990493277977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999990768062617</v>
+        <v>-0.02187340111522218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999893911486</v>
+        <v>-0.019999998854618894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998932094698</v>
+        <v>-0.019999998854034473</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990602985775</v>
+        <v>-0.0059999990218928545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999990544241655</v>
+        <v>-0.0059999990262298297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999990686775959</v>
+        <v>0.046537649854304419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.025135616332102817</v>
+        <v>-0.0059999990255388269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990404744352</v>
+        <v>-0.005999999020949609</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998979097093</v>
+        <v>0.042427068376224675</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990346595311</v>
+        <v>-0.0059999990132855174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999990323853503</v>
+        <v>-0.031159799092430163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999990293286842</v>
+        <v>-0.0059999990015970894</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999989999194341</v>
+        <v>-0.0089999989653213319</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027965363875306348</v>
+        <v>-0.0089999990668325758</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.055800221201071309</v>
+        <v>-0.0089999990585187817</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999990878846248</v>
+        <v>-0.00899999905729576</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999999087377919</v>
+        <v>-0.0089999990564555432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999990827580589</v>
+        <v>-0.0089999990296432131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998754115531</v>
+        <v>-0.041999998627201052</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998748460499</v>
+        <v>-0.041999998619611567</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999990758754507</v>
+        <v>-0.0059999990169039563</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999990739694198</v>
+        <v>-0.005999999011366608</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999990653674118</v>
+        <v>-0.0059999989899175432</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999002355821</v>
+        <v>-0.011999998904720144</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.018454810600134763</v>
+        <v>-0.019999998803184482</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998964253081</v>
+        <v>-0.014999998852150753</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998905335104</v>
+        <v>-0.020999998780148132</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999990500774203</v>
+        <v>-0.0059999989566916767</v>
       </c>
     </row>
   </sheetData>
